--- a/nriss-patch-1/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nriss-patch-1/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7.fr/fhir/fr/medication/ValueSet/fr-current-medication-document-type</t>
+    <t>https://hl7.fr/ig/fhir/medication/ValueSet/fr-current-medication-document-type</t>
   </si>
   <si>
     <t>Version</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>value set InterOp'Santé - type de document de la ressource Composition d'une FCT</t>
+    <t>value set Interop'Santé - type de document de la ressource Composition d'une FCT</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T15:35:36+00:00</t>
+    <t>2026-01-15T08:54:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,43 +78,46 @@
     <t>Jurisdiction</t>
   </si>
   <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Le jeu de valeurs à utiliser pour coder le type de document de la ressource *Composition* d'une liste des Traitements Médicamenteux Courants.</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[false]</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>isCurrentMedication</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Le jeu de valeurs à utiliser pour coder le type de document de la ressource *Composition* d'une liste des Traitements Médicamenteux Courants.</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[false]</t>
-  </si>
-  <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>isCurrentMedication</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>System URI</t>
   </si>
   <si>
-    <t>https://hl7.fr/fhir/fr/medication/CodeSystem/fr-document-type</t>
+    <t>https://hl7.fr/ig/fhir/medication/CodeSystem/fr-document-type</t>
   </si>
 </sst>
 </file>
@@ -415,18 +418,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
